--- a/content/post/openai/OpenAI模型价格.xlsx
+++ b/content/post/openai/OpenAI模型价格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760"/>
+    <workbookView windowWidth="27660" windowHeight="11340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
   <si>
     <t>Model</t>
   </si>
@@ -110,6 +110,33 @@
         <scheme val="minor"/>
       </rPr>
       <t>gpt-4-vision-preview</t>
+    </r>
+  </si>
+  <si>
+    <t>moonshot-v1-8k</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>moonshot-v1-32k</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>moonshot-v1-128k</t>
     </r>
   </si>
   <si>
@@ -177,7 +204,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +234,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F2328"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -724,137 +758,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -876,6 +910,9 @@
     <xf numFmtId="57" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -894,13 +931,19 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="57" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -909,16 +952,22 @@
     <xf numFmtId="57" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="57" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1446,10 +1495,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1496,97 +1545,97 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="9">
         <v>0.001</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="9">
         <v>0.002</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
         <v>0.0015</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="9">
         <v>0.002</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>0.003</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <v>0.004</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>0.0015</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <v>0.002</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="11">
         <v>0.0015</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="11">
         <v>0.002</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="19">
         <v>44440</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9" t="s">
+      <c r="H6" s="10"/>
+      <c r="I6" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J6">
@@ -1597,29 +1646,29 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="13">
         <v>0.0005</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="13">
         <v>0.0015</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="20">
         <v>44440</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11" t="s">
+      <c r="H7" s="12"/>
+      <c r="I7" s="12" t="s">
         <v>20</v>
       </c>
       <c r="J7">
@@ -1630,29 +1679,29 @@
       </c>
     </row>
     <row r="8" ht="17.6" spans="1:11">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="13">
         <v>0.01</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="13">
         <v>0.03</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="21">
         <v>45261</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="20" t="s">
+      <c r="H8" s="12"/>
+      <c r="I8" s="24" t="s">
         <v>24</v>
       </c>
       <c r="J8">
@@ -1663,29 +1712,29 @@
       </c>
     </row>
     <row r="9" ht="18" spans="1:11">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="11">
         <v>0.01</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="11">
         <v>0.03</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="25" t="s">
         <v>28</v>
       </c>
       <c r="J9">
@@ -1695,170 +1744,218 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="3:3">
-      <c r="C10" s="13"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
+    <row r="10" s="7" customFormat="1" ht="17.6" spans="1:9">
+      <c r="A10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B11">
+      <c r="B10" s="15">
+        <f>12/1000/7</f>
+        <v>0.00171428571428571</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="26"/>
+    </row>
+    <row r="11" s="7" customFormat="1" ht="18" spans="1:9">
+      <c r="A11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="15">
+        <f>24/1000/7</f>
+        <v>0.00342857142857143</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="26"/>
+    </row>
+    <row r="12" s="7" customFormat="1" ht="18" spans="1:9">
+      <c r="A12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="15">
+        <f>60/1000/7</f>
+        <v>0.00857142857142857</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="26"/>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="17"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
         <f>B8/B7</f>
         <v>20</v>
       </c>
-      <c r="C11">
+      <c r="C14">
         <f>C8/C7</f>
         <v>20</v>
       </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12">
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12">
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15">
         <v>1000</v>
       </c>
-      <c r="I12" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12">
-        <f>H12*2/1000*B7</f>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15">
+        <f>H15*2/1000*B7</f>
         <v>0.001</v>
       </c>
     </row>
-    <row r="13" spans="7:10">
-      <c r="G13" t="s">
+    <row r="16" spans="7:10">
+      <c r="G16" t="s">
         <v>4</v>
       </c>
-      <c r="H13">
+      <c r="H16">
         <v>1000</v>
       </c>
-      <c r="I13" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13">
-        <f>H13*2/1000*C7</f>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16">
+        <f>H16*2/1000*C7</f>
         <v>0.003</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="7">
+    <row r="17" spans="1:11">
+      <c r="A17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="8">
         <f>3*B7+2*C7</f>
         <v>0.0045</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14">
-        <f>(J12+J13)*7</f>
+      <c r="C17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17">
+        <f>(J15+J16)*7</f>
         <v>0.028</v>
       </c>
-      <c r="K14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="14" t="s">
+      <c r="K17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="18">
+        <v>50</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+      <c r="I18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18">
+        <f>J17*H18</f>
+        <v>2.8</v>
+      </c>
+      <c r="K18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="18">
+        <v>10</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="8">
+        <f>B17*B18*B19</f>
+        <v>2.25</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="15">
-        <v>50</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="18">
         <v>100</v>
       </c>
-      <c r="I15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15">
-        <f>J14*H15</f>
-        <v>2.8</v>
-      </c>
-      <c r="K15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="14" t="s">
+      <c r="C22" s="18"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="8">
+        <f>B20*B22</f>
+        <v>225</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8">
+        <f>B23*7</f>
+        <v>1575</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="B16" s="15">
-        <v>10</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="7">
-        <f>B14*B15*B16</f>
-        <v>2.25</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="15">
-        <v>100</v>
-      </c>
-      <c r="C19" s="15"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="7">
-        <f>B17*B19</f>
-        <v>225</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7">
-        <f>B20*7</f>
-        <v>1575</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
